--- a/3rd_experiment/EE_Measurement/m20060/experiment_serch_electro.xlsx
+++ b/3rd_experiment/EE_Measurement/m20060/experiment_serch_electro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\m20060\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skota\Desktop\Task-for-TMCIT\3rd_experiment\EE_Measurement\m20060\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6B7037-0C4E-40E9-ACCC-FBFF3695ECD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D6C768-2C58-47BE-A0C9-50BEB61EE8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{FB65151F-E6D3-4A72-9942-EA4A99025AA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB65151F-E6D3-4A72-9942-EA4A99025AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,8 +76,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,2012 +397,4448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9EAD7-230D-4962-BA3D-3E9EAFD2A6D3}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>3.26416</v>
       </c>
+      <c r="C1">
+        <f>B1-$B$103</f>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D1">
+        <f>C1*C1</f>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F1">
         <v>0</v>
       </c>
-      <c r="E1">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G1">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H1">
+        <f>G1-$G$103</f>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I1">
+        <f>H1*H1</f>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K1">
         <v>0</v>
       </c>
-      <c r="H1">
+      <c r="L1">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M1">
+        <f>L1-$L$103</f>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N1">
+        <f>M1*M1</f>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>3.26416</v>
       </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">B2-$B$103</f>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D2">
+        <f t="shared" ref="D2:D65" si="1">C2*C2</f>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G2">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H65" si="2">G2-$G$103</f>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I65" si="3">H2*H2</f>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L2">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M65" si="4">L2-$L$103</f>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N65" si="5">M2*M2</f>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3.26416</v>
       </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D3">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G3">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L3">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3.26416</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G4">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>3.26416</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G5">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L5">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G6">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L6">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G7">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="H7">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L7">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3.26416</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G8">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="H8">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L8">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3.26416</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G9">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="H9">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L9">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>3.26416</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G10">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="H10">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L10">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3.26416</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G11">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>3.26416</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G12">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>3.26416</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G13">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K13">
         <v>12</v>
       </c>
-      <c r="H13">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L13">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>3.26416</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="E14">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G14">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K14">
         <v>13</v>
       </c>
-      <c r="H14">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L14">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>3.26416</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="E15">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G15">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K15">
         <v>14</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>3.26416</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G16">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K16">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>3.26416</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="E17">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G17">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K17">
         <v>16</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>3.26416</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="E18">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G18">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K18">
         <v>17</v>
       </c>
-      <c r="H18">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L18">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>3.26416</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D19">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="E19">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G19">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K19">
         <v>18</v>
       </c>
-      <c r="H19">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L19">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>3.26416</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="E20">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G20">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K20">
         <v>19</v>
       </c>
-      <c r="H20">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L20">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>3.26416</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="E21">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G21">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K21">
         <v>20</v>
       </c>
-      <c r="H21">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L21">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>3.26416</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="E22">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G22">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K22">
         <v>21</v>
       </c>
-      <c r="H22">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L22">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>3.26416</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="E23">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G23">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K23">
         <v>22</v>
       </c>
-      <c r="H23">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L23">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>3.26416</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D24">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="E24">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G24">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K24">
         <v>23</v>
       </c>
-      <c r="H24">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L24">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>3.26416</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D25">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G25">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K25">
         <v>24</v>
       </c>
-      <c r="H25">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L25">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>3.26416</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D26">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="E26">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G26">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K26">
         <v>25</v>
       </c>
-      <c r="H26">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L26">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>3.26416</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D27">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F27">
         <v>26</v>
       </c>
-      <c r="E27">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G27">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K27">
         <v>26</v>
       </c>
-      <c r="H27">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L27">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>3.26416</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D28">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F28">
         <v>27</v>
       </c>
-      <c r="E28">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G28">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K28">
         <v>27</v>
       </c>
-      <c r="H28">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L28">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F29">
         <v>28</v>
       </c>
-      <c r="E29">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G29">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K29">
         <v>28</v>
       </c>
-      <c r="H29">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L29">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F30">
         <v>29</v>
       </c>
-      <c r="E30">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G30">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K30">
         <v>29</v>
       </c>
-      <c r="H30">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L30">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>3.26416</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D31">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F31">
         <v>30</v>
       </c>
-      <c r="E31">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G31">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K31">
         <v>30</v>
       </c>
-      <c r="H31">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L31">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>3.26416</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D32">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F32">
         <v>31</v>
       </c>
-      <c r="E32">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G32">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K32">
         <v>31</v>
       </c>
-      <c r="H32">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L32">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>3.26416</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D33">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F33">
         <v>32</v>
       </c>
-      <c r="E33">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G33">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K33">
         <v>32</v>
       </c>
-      <c r="H33">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L33">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>3.26416</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D34">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F34">
         <v>33</v>
       </c>
-      <c r="E34">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G34">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K34">
         <v>33</v>
       </c>
-      <c r="H34">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L34">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>3.26416</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D35">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F35">
         <v>34</v>
       </c>
-      <c r="E35">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G35">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K35">
         <v>34</v>
       </c>
-      <c r="H35">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L35">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>3.26416</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D36">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G36">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K36">
         <v>35</v>
       </c>
-      <c r="H36">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L36">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>3.26416</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D37">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F37">
         <v>36</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G37">
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K37">
         <v>36</v>
       </c>
-      <c r="H37">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L37">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>3.26416</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D38">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F38">
         <v>37</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G38">
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K38">
         <v>37</v>
       </c>
-      <c r="H38">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L38">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>3.26416</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D39">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F39">
         <v>38</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G39">
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K39">
         <v>38</v>
       </c>
-      <c r="H39">
+      <c r="L39">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>3.26416</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D40">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F40">
         <v>39</v>
       </c>
-      <c r="E40">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G40">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K40">
         <v>39</v>
       </c>
-      <c r="H40">
+      <c r="L40">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>3.26416</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D41">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F41">
         <v>40</v>
       </c>
-      <c r="E41">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G41">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K41">
         <v>40</v>
       </c>
-      <c r="H41">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L41">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>3.26416</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D42">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F42">
         <v>41</v>
       </c>
-      <c r="E42">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G42">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K42">
         <v>41</v>
       </c>
-      <c r="H42">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L42">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>3.26416</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D43">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F43">
         <v>42</v>
       </c>
-      <c r="E43">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G43">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K43">
         <v>42</v>
       </c>
-      <c r="H43">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L43">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>3.26416</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D44">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F44">
         <v>43</v>
       </c>
-      <c r="E44">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G44">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K44">
         <v>43</v>
       </c>
-      <c r="H44">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L44">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>3.26416</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D45">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F45">
         <v>44</v>
       </c>
-      <c r="E45">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G45">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K45">
         <v>44</v>
       </c>
-      <c r="H45">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L45">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>3.26416</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F46">
         <v>45</v>
       </c>
-      <c r="E46">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G46">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K46">
         <v>45</v>
       </c>
-      <c r="H46">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L46">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>3.26416</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D47">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F47">
         <v>46</v>
       </c>
-      <c r="E47">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G47">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K47">
         <v>46</v>
       </c>
-      <c r="H47">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L47">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>3.26416</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D48">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F48">
         <v>47</v>
       </c>
-      <c r="E48">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G48">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K48">
         <v>47</v>
       </c>
-      <c r="H48">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L48">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F49">
         <v>48</v>
       </c>
-      <c r="E49">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G49">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K49">
         <v>48</v>
       </c>
-      <c r="H49">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L49">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>3.26416</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D50">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F50">
         <v>49</v>
       </c>
-      <c r="E50">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G50">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K50">
         <v>49</v>
       </c>
-      <c r="H50">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L50">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>3.26416</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D51">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F51">
         <v>50</v>
       </c>
-      <c r="E51">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G51">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K51">
         <v>50</v>
       </c>
-      <c r="H51">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L51">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>3.26416</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D52">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F52">
         <v>51</v>
       </c>
-      <c r="E52">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G52">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K52">
         <v>51</v>
       </c>
-      <c r="H52">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L52">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>3.26416</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D53">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F53">
         <v>52</v>
       </c>
-      <c r="E53">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G53">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K53">
         <v>52</v>
       </c>
-      <c r="H53">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L53">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>3.26416</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D54">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F54">
         <v>53</v>
       </c>
-      <c r="E54">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G54">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K54">
         <v>53</v>
       </c>
-      <c r="H54">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L54">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>3.26416</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D55">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F55">
         <v>54</v>
       </c>
-      <c r="E55">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G55">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K55">
         <v>54</v>
       </c>
-      <c r="H55">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L55">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>3.26416</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D56">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F56">
         <v>55</v>
       </c>
-      <c r="E56">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G56">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K56">
         <v>55</v>
       </c>
-      <c r="H56">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L56">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>3.26416</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D57">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F57">
         <v>56</v>
       </c>
-      <c r="E57">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G57">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K57">
         <v>56</v>
       </c>
-      <c r="H57">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L57">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>3.26416</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D58">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F58">
         <v>57</v>
       </c>
-      <c r="E58">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G58">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K58">
         <v>57</v>
       </c>
-      <c r="H58">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L58">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>3.26416</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D59">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F59">
         <v>58</v>
       </c>
-      <c r="E59">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G59">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K59">
         <v>58</v>
       </c>
-      <c r="H59">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L59">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>3.26416</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D60">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F60">
         <v>59</v>
       </c>
-      <c r="E60">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G60">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K60">
         <v>59</v>
       </c>
-      <c r="H60">
+      <c r="L60">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>3.26416</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D61">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F61">
         <v>60</v>
       </c>
-      <c r="E61">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G61">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K61">
         <v>60</v>
       </c>
-      <c r="H61">
+      <c r="L61">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="5"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>3.26416</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D62">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F62">
         <v>61</v>
       </c>
-      <c r="E62">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G62">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K62">
         <v>61</v>
       </c>
-      <c r="H62">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L62">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>3.26416</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D63">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F63">
         <v>62</v>
       </c>
-      <c r="E63">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G63">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K63">
         <v>62</v>
       </c>
-      <c r="H63">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L63">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>3.26416</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D64">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F64">
         <v>63</v>
       </c>
-      <c r="E64">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G64">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K64">
         <v>63</v>
       </c>
-      <c r="H64">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L64">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>3.26416</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D65">
+        <f t="shared" si="1"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F65">
         <v>64</v>
       </c>
-      <c r="E65">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G65">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K65">
         <v>64</v>
       </c>
-      <c r="H65">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L65">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="4"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="5"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>3.26416</v>
       </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C100" si="6">B66-$B$103</f>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D66">
+        <f t="shared" ref="D66:D100" si="7">C66*C66</f>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F66">
         <v>65</v>
       </c>
-      <c r="E66">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G66">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H100" si="8">G66-$G$103</f>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I100" si="9">H66*H66</f>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K66">
         <v>65</v>
       </c>
-      <c r="H66">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L66">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ref="M66:M100" si="10">L66-$L$103</f>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66:N100" si="11">M66*M66</f>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>3.26416</v>
       </c>
+      <c r="C67">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D67">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F67">
         <v>66</v>
       </c>
-      <c r="E67">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G67">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K67">
         <v>66</v>
       </c>
-      <c r="H67">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L67">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>3.26416</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D68">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F68">
         <v>67</v>
       </c>
-      <c r="E68">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G68">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K68">
         <v>67</v>
       </c>
-      <c r="H68">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L68">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>3.26416</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D69">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F69">
         <v>68</v>
       </c>
-      <c r="E69">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G69">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K69">
         <v>68</v>
       </c>
-      <c r="H69">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L69">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>3.26416</v>
       </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D70">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F70">
         <v>69</v>
       </c>
-      <c r="E70">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G70">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K70">
         <v>69</v>
       </c>
-      <c r="H70">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L70">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>3.26416</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D71">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F71">
         <v>70</v>
       </c>
-      <c r="E71">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G71">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K71">
         <v>70</v>
       </c>
-      <c r="H71">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L71">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>3.26416</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D72">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F72">
         <v>71</v>
       </c>
-      <c r="E72">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G72">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K72">
         <v>71</v>
       </c>
-      <c r="H72">
+      <c r="L72">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M72">
+        <f t="shared" si="10"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="11"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>3.26416</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D73">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F73">
         <v>72</v>
       </c>
-      <c r="E73">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G73">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K73">
         <v>72</v>
       </c>
-      <c r="H73">
+      <c r="L73">
         <v>4.9816890000000003</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M73">
+        <f t="shared" si="10"/>
+        <v>1.062270000010912E-3</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="11"/>
+        <v>1.1284175529231829E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>3.26416</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D74">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F74">
         <v>73</v>
       </c>
-      <c r="E74">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G74">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K74">
         <v>73</v>
       </c>
-      <c r="H74">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L74">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>3.26416</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D75">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F75">
         <v>74</v>
       </c>
-      <c r="E75">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G75">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K75">
         <v>74</v>
       </c>
-      <c r="H75">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L75">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D76">
+        <f t="shared" si="7"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F76">
         <v>75</v>
       </c>
-      <c r="E76">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G76">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K76">
         <v>75</v>
       </c>
-      <c r="H76">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L76">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D77">
+        <f t="shared" si="7"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F77">
         <v>76</v>
       </c>
-      <c r="E77">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G77">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K77">
         <v>76</v>
       </c>
-      <c r="H77">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L77">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>3.26416</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D78">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F78">
         <v>77</v>
       </c>
-      <c r="E78">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G78">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K78">
         <v>77</v>
       </c>
-      <c r="H78">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L78">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>3.26416</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D79">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F79">
         <v>78</v>
       </c>
-      <c r="E79">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G79">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K79">
         <v>78</v>
       </c>
-      <c r="H79">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L79">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>3.26416</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D80">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F80">
         <v>79</v>
       </c>
-      <c r="E80">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G80">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K80">
         <v>79</v>
       </c>
-      <c r="H80">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L80">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>3.26416</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D81">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F81">
         <v>80</v>
       </c>
-      <c r="E81">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G81">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K81">
         <v>80</v>
       </c>
-      <c r="H81">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L81">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>3.26416</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D82">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F82">
         <v>81</v>
       </c>
-      <c r="E82">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G82">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K82">
         <v>81</v>
       </c>
-      <c r="H82">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L82">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="6"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D83">
+        <f t="shared" si="7"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F83">
         <v>82</v>
       </c>
-      <c r="E83">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G83">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K83">
         <v>82</v>
       </c>
-      <c r="H83">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L83">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D84">
+        <f t="shared" si="7"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F84">
         <v>83</v>
       </c>
-      <c r="E84">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G84">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K84">
         <v>83</v>
       </c>
-      <c r="H84">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L84">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>3.26416</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D85">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F85">
         <v>84</v>
       </c>
-      <c r="E85">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G85">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K85">
         <v>84</v>
       </c>
-      <c r="H85">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L85">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>3.26416</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D86">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F86">
         <v>85</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G86">
+      <c r="H86">
+        <f t="shared" si="8"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="9"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K86">
         <v>85</v>
       </c>
-      <c r="H86">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L86">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>3.26416</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D87">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F87">
         <v>86</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G87">
+      <c r="H87">
+        <f t="shared" si="8"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="9"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K87">
         <v>86</v>
       </c>
-      <c r="H87">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L87">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>3.26416</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D88">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F88">
         <v>87</v>
       </c>
-      <c r="E88">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G88">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K88">
         <v>87</v>
       </c>
-      <c r="H88">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L88">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>3.26416</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D89">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F89">
         <v>88</v>
       </c>
-      <c r="E89">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G89">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K89">
         <v>88</v>
       </c>
-      <c r="H89">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L89">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>3.26416</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D90">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F90">
         <v>89</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G90">
+      <c r="H90">
+        <f t="shared" si="8"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="9"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K90">
         <v>89</v>
       </c>
-      <c r="H90">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L90">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>3.26416</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D91">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F91">
         <v>90</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G91">
+      <c r="H91">
+        <f t="shared" si="8"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="9"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K91">
         <v>90</v>
       </c>
-      <c r="H91">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L91">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>3.26416</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D92">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F92">
         <v>91</v>
       </c>
-      <c r="E92">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G92">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K92">
         <v>91</v>
       </c>
-      <c r="H92">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L92">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D93">
+        <f t="shared" si="7"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F93">
         <v>92</v>
       </c>
-      <c r="E93">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G93">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K93">
         <v>92</v>
       </c>
-      <c r="H93">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L93">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D94">
+        <f t="shared" si="7"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F94">
         <v>93</v>
       </c>
-      <c r="E94">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G94">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K94">
         <v>93</v>
       </c>
-      <c r="H94">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L94">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>3.26416</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D95">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F95">
         <v>94</v>
       </c>
-      <c r="E95">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G95">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K95">
         <v>94</v>
       </c>
-      <c r="H95">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L95">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>3.26416</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D96">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F96">
         <v>95</v>
       </c>
-      <c r="E96">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G96">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K96">
         <v>95</v>
       </c>
-      <c r="H96">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L96">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D97">
+        <f t="shared" si="7"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F97">
         <v>96</v>
       </c>
-      <c r="E97">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G97">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K97">
         <v>96</v>
       </c>
-      <c r="H97">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L97">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>3.2629389999999998</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="6"/>
+        <v>-1.0622700000029184E-3</v>
+      </c>
       <c r="D98">
+        <f t="shared" si="7"/>
+        <v>1.1284175529062003E-6</v>
+      </c>
+      <c r="F98">
         <v>97</v>
       </c>
-      <c r="E98">
+      <c r="G98">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G98">
+      <c r="H98">
+        <f t="shared" si="8"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="9"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K98">
         <v>97</v>
       </c>
-      <c r="H98">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L98">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>3.26416</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D99">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F99">
         <v>98</v>
       </c>
-      <c r="E99">
+      <c r="G99">
         <v>6.1040000000000001E-3</v>
       </c>
-      <c r="G99">
+      <c r="H99">
+        <f t="shared" si="8"/>
+        <v>-1.0979999999999983E-3</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="9"/>
+        <v>1.2056039999999962E-6</v>
+      </c>
+      <c r="K99">
         <v>98</v>
       </c>
-      <c r="H99">
-        <v>4.9804680000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L99">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>3.26416</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="6"/>
+        <v>1.5872999999722026E-4</v>
+      </c>
       <c r="D100">
+        <f t="shared" si="7"/>
+        <v>2.5195212899117546E-8</v>
+      </c>
+      <c r="F100">
         <v>99</v>
       </c>
-      <c r="E100">
-        <v>7.3239999999999998E-3</v>
-      </c>
       <c r="G100">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="8"/>
+        <v>1.2200000000000145E-4</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="9"/>
+        <v>1.4884000000000354E-8</v>
+      </c>
+      <c r="K100">
         <v>99</v>
       </c>
-      <c r="H100">
-        <v>4.9804680000000001</v>
+      <c r="L100">
+        <v>4.9804680000000001</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="10"/>
+        <v>-1.5872999998922666E-4</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="11"/>
+        <v>2.5195212896579894E-8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>3.3</v>
+      </c>
+      <c r="B103">
+        <f>AVERAGE(B1:B100)</f>
+        <v>3.2640012700000027</v>
+      </c>
+      <c r="D103" s="1">
+        <f>AVERAGE(D1:D100)</f>
+        <v>1.6861411710003825E-7</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="G103">
+        <f>AVERAGE(G1:G100)</f>
+        <v>7.2019999999999983E-3</v>
+      </c>
+      <c r="I103">
+        <f>AVERAGE(I1:I100)</f>
+        <v>1.339559999999998E-7</v>
+      </c>
+      <c r="L103">
+        <f>AVERAGE(L1:L100)</f>
+        <v>4.9806267299999893</v>
+      </c>
+      <c r="N103">
+        <f>AVERAGE(N1:N100)</f>
+        <v>1.6861411710003817E-7</v>
       </c>
     </row>
   </sheetData>
@@ -2406,9 +4855,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2422,7 +4871,7 @@
         <v>-7.3239999999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2436,7 +4885,7 @@
         <v>7.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2450,7 +4899,7 @@
         <v>2.686E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2464,7 +4913,7 @@
         <v>3.418E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2478,7 +4927,7 @@
         <v>4.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2492,7 +4941,7 @@
         <v>3.6619999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2506,7 +4955,7 @@
         <v>3.1740000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2520,7 +4969,7 @@
         <v>2.686E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2534,7 +4983,7 @@
         <v>2.1979999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2548,7 +4997,7 @@
         <v>1.709E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
